--- a/kode_data.xlsx
+++ b/kode_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jedox2002-my.sharepoint.com/personal/sharavanan_subramani_jedox_com/Documents/Dokumente/DHBW/2021WS/Data Exploration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jedox2002-my.sharepoint.com/personal/sharavanan_subramani_jedox_com/Documents/Dokumente/DHBW/2021WS/Data Exploration/stellenanzeigen/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="13" documentId="8_{20CC8954-8C3D-4F22-B635-98CD49CB66E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0999926-EEDB-4A26-8470-4B64939E5215}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="2440" windowWidth="37640" windowHeight="16300" xr2:uid="{CA87DFC9-DC80-497F-8518-9E378D147A93}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{CA87DFC9-DC80-497F-8518-9E378D147A93}"/>
   </bookViews>
   <sheets>
     <sheet name="kode_data" sheetId="2" r:id="rId1"/>
@@ -1184,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0630E3FA-2DE9-4F3E-942E-725C6C37025F}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>

--- a/kode_data.xlsx
+++ b/kode_data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="13" documentId="8_{20CC8954-8C3D-4F22-B635-98CD49CB66E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0999926-EEDB-4A26-8470-4B64939E5215}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{CA87DFC9-DC80-497F-8518-9E378D147A93}"/>
+    <workbookView xWindow="1220" yWindow="1220" windowWidth="28800" windowHeight="15170" xr2:uid="{CA87DFC9-DC80-497F-8518-9E378D147A93}"/>
   </bookViews>
   <sheets>
     <sheet name="kode_data" sheetId="2" r:id="rId1"/>
@@ -1188,15 +1188,15 @@
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="11.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.47265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="226.3671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="226.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>245</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2530,7 +2530,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/kode_data.xlsx
+++ b/kode_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jedox2002-my.sharepoint.com/personal/sharavanan_subramani_jedox_com/Documents/Dokumente/DHBW/2021WS/Data Exploration/stellenanzeigen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4716c97eca9966ef/DHBW/Projekte/Kompetenzkatalog/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{20CC8954-8C3D-4F22-B635-98CD49CB66E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0999926-EEDB-4A26-8470-4B64939E5215}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20CC8954-8C3D-4F22-B635-98CD49CB66E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="1220" windowWidth="28800" windowHeight="15170" xr2:uid="{CA87DFC9-DC80-497F-8518-9E378D147A93}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11250" xr2:uid="{CA87DFC9-DC80-497F-8518-9E378D147A93}"/>
   </bookViews>
   <sheets>
     <sheet name="kode_data" sheetId="2" r:id="rId1"/>
@@ -1184,19 +1184,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0630E3FA-2DE9-4F3E-942E-725C6C37025F}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="226.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>245</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2530,7 +2530,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
